--- a/src/main/webapp/WEB-INF/static/template/stock/stockQuantityTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/static/template/stock/stockQuantityTemplate.xlsx
@@ -151,8 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -211,10 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,29 +497,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" activeCellId="1" sqref="E1 E11"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
